--- a/Code/Results/Cases/Case_1_248/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_248/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2337055029887551</v>
+        <v>0.08254928555990659</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04336216218055711</v>
+        <v>0.0199032646041033</v>
       </c>
       <c r="E2">
-        <v>0.2717013395601171</v>
+        <v>0.1454144946159843</v>
       </c>
       <c r="F2">
-        <v>0.5231494760304543</v>
+        <v>0.6222316907933063</v>
       </c>
       <c r="G2">
-        <v>0.0007856291488374169</v>
+        <v>0.002406805526646769</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1887956370535004</v>
+        <v>0.4391135274961098</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.713500360366112</v>
+        <v>0.5193990263817057</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7581952995565899</v>
+        <v>0.2658377735403263</v>
       </c>
       <c r="N2">
-        <v>0.660361687705878</v>
+        <v>1.294601807314994</v>
       </c>
       <c r="O2">
-        <v>1.469378335661162</v>
+        <v>2.076451734950098</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2034653475020747</v>
+        <v>0.07309802175362279</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03883173272794949</v>
+        <v>0.01835804970919241</v>
       </c>
       <c r="E3">
-        <v>0.2372011946234238</v>
+        <v>0.1372387361099925</v>
       </c>
       <c r="F3">
-        <v>0.4792984576756041</v>
+        <v>0.6158934162451928</v>
       </c>
       <c r="G3">
-        <v>0.0007894843574164367</v>
+        <v>0.002409375702234238</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1994062305877247</v>
+        <v>0.4449566295214264</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.496639519491964</v>
+        <v>0.4529371040189858</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6562586459034705</v>
+        <v>0.2371435048373272</v>
       </c>
       <c r="N3">
-        <v>0.693891473994805</v>
+        <v>1.308859315523067</v>
       </c>
       <c r="O3">
-        <v>1.371189409106393</v>
+        <v>2.068815343735537</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1848830604073584</v>
+        <v>0.06729474701933214</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03603979233600541</v>
+        <v>0.01740150040771482</v>
       </c>
       <c r="E4">
-        <v>0.2164874400154133</v>
+        <v>0.1323325121669185</v>
       </c>
       <c r="F4">
-        <v>0.4533574393835238</v>
+        <v>0.6124254215324356</v>
       </c>
       <c r="G4">
-        <v>0.0007919294665468257</v>
+        <v>0.002411038653411015</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.206332892006027</v>
+        <v>0.4487616592074026</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.36361024917241</v>
+        <v>0.4120083196593782</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5941457968798787</v>
+        <v>0.2195887546826327</v>
       </c>
       <c r="N4">
-        <v>0.7154403356901113</v>
+        <v>1.318087914377671</v>
       </c>
       <c r="O4">
-        <v>1.314046267735478</v>
+        <v>2.06550874901157</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1773057175884674</v>
+        <v>0.06493002385433044</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03489931404154589</v>
+        <v>0.01700976431160228</v>
       </c>
       <c r="E5">
-        <v>0.2081523337793243</v>
+        <v>0.130361566957184</v>
       </c>
       <c r="F5">
-        <v>0.4430170353631624</v>
+        <v>0.6111186618267581</v>
       </c>
       <c r="G5">
-        <v>0.0007929458617986075</v>
+        <v>0.002411737720820428</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.209256314597253</v>
+        <v>0.4503668850378766</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.309410126940747</v>
+        <v>0.3952997952821988</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5689357000754214</v>
+        <v>0.2124510300203468</v>
       </c>
       <c r="N5">
-        <v>0.7244573645369936</v>
+        <v>1.3219679468418</v>
       </c>
       <c r="O5">
-        <v>1.29150094657993</v>
+        <v>2.064508502053911</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1760471750754675</v>
+        <v>0.06453737879508026</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03470976838632822</v>
+        <v>0.01694460064572922</v>
       </c>
       <c r="E6">
-        <v>0.2067743514840146</v>
+        <v>0.1300360008288095</v>
       </c>
       <c r="F6">
-        <v>0.441313488470584</v>
+        <v>0.6109081041180744</v>
       </c>
       <c r="G6">
-        <v>0.0007931158517997446</v>
+        <v>0.002411855094963509</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2097477527425582</v>
+        <v>0.4506367318068865</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.300410280406254</v>
+        <v>0.392523583271327</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5647551871547591</v>
+        <v>0.2112667806331956</v>
       </c>
       <c r="N6">
-        <v>0.7259686987636815</v>
+        <v>1.322619429078109</v>
       </c>
       <c r="O6">
-        <v>1.287800655812816</v>
+        <v>2.064363372883406</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1847808911401074</v>
+        <v>0.06726285463091131</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03602442275151674</v>
+        <v>0.01739622512131689</v>
       </c>
       <c r="E7">
-        <v>0.2163746165290092</v>
+        <v>0.1323058166827664</v>
       </c>
       <c r="F7">
-        <v>0.4532170719908848</v>
+        <v>0.6124073670954644</v>
       </c>
       <c r="G7">
-        <v>0.0007919430926027569</v>
+        <v>0.002411047994682105</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2063719139522515</v>
+        <v>0.4487830865965181</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.362879271939761</v>
+        <v>0.4117831020483891</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5938054177893761</v>
+        <v>0.2194924281680457</v>
       </c>
       <c r="N7">
-        <v>0.7155609959803968</v>
+        <v>1.318139758791704</v>
       </c>
       <c r="O7">
-        <v>1.313739277561979</v>
+        <v>2.065493853921595</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.223280989724671</v>
+        <v>0.07929063935668523</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04180209081944497</v>
+        <v>0.0193721023189326</v>
       </c>
       <c r="E8">
-        <v>0.2597007123835269</v>
+        <v>0.1425717566875662</v>
       </c>
       <c r="F8">
-        <v>0.5078152193978127</v>
+        <v>0.6199582595897013</v>
       </c>
       <c r="G8">
-        <v>0.0007869424717681522</v>
+        <v>0.002407674150678762</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1923670146036729</v>
+        <v>0.4410831162888957</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.638687970808064</v>
+        <v>0.496508440066691</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7229371253245134</v>
+        <v>0.2559307552359655</v>
       </c>
       <c r="N8">
-        <v>0.6717194730449521</v>
+        <v>1.299419331246153</v>
       </c>
       <c r="O8">
-        <v>1.434839095506106</v>
+        <v>2.073531620193478</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2987247505719495</v>
+        <v>0.1028682196504462</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05305938927397591</v>
+        <v>0.02318424736155578</v>
       </c>
       <c r="E9">
-        <v>0.3489767701953852</v>
+        <v>0.1636164817211991</v>
       </c>
       <c r="F9">
-        <v>0.6234842484307492</v>
+        <v>0.6381327759145634</v>
       </c>
       <c r="G9">
-        <v>0.0007777368831879068</v>
+        <v>0.002401728387462603</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1683000991294996</v>
+        <v>0.4277081263449283</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.181564127614564</v>
+        <v>0.661672947783245</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9808471036472213</v>
+        <v>0.3278961086860051</v>
       </c>
       <c r="N9">
-        <v>0.5936609174022358</v>
+        <v>1.266472399051413</v>
       </c>
       <c r="O9">
-        <v>1.699670717052243</v>
+        <v>2.100280233298975</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3542165549434912</v>
+        <v>0.1201767269206471</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06129930886046253</v>
+        <v>0.02594606777574171</v>
       </c>
       <c r="E10">
-        <v>0.4180830843893872</v>
+        <v>0.1796515033590111</v>
       </c>
       <c r="F10">
-        <v>0.7148966475986782</v>
+        <v>0.6535479805105524</v>
       </c>
       <c r="G10">
-        <v>0.0007713126342314339</v>
+        <v>0.002397764575459562</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1528767069773487</v>
+        <v>0.4189327964422596</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.583219870801202</v>
+        <v>0.7824023906995308</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.174549526291777</v>
+        <v>0.3810920505553526</v>
       </c>
       <c r="N10">
-        <v>0.5415532775249687</v>
+        <v>1.244559262900559</v>
       </c>
       <c r="O10">
-        <v>1.914489193373896</v>
+        <v>2.126663210091237</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3794981367236261</v>
+        <v>0.1280460803206722</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06504444476483684</v>
+        <v>0.02719386865184958</v>
       </c>
       <c r="E11">
-        <v>0.45050006025307</v>
+        <v>0.1870744668818318</v>
       </c>
       <c r="F11">
-        <v>0.7581629790186639</v>
+        <v>0.6610108080093937</v>
       </c>
       <c r="G11">
-        <v>0.0007684573010676986</v>
+        <v>0.002396048301764848</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1463946160134384</v>
+        <v>0.4151689179646247</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.766935385036646</v>
+        <v>0.8371881589744419</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.263915678109058</v>
+        <v>0.4053653208289916</v>
       </c>
       <c r="N11">
-        <v>0.5190854579351765</v>
+        <v>1.235088010160357</v>
       </c>
       <c r="O11">
-        <v>2.017469045038155</v>
+        <v>2.140134529557571</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3890790328177189</v>
+        <v>0.1310251900639656</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06646244056575767</v>
+        <v>0.02766512725912662</v>
       </c>
       <c r="E12">
-        <v>0.4629360871636834</v>
+        <v>0.1899040978761732</v>
       </c>
       <c r="F12">
-        <v>0.7748142431737932</v>
+        <v>0.6639016766469581</v>
       </c>
       <c r="G12">
-        <v>0.0007673851438036674</v>
+        <v>0.002395410821181873</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1440207581731023</v>
+        <v>0.4137764386456642</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.836681540195343</v>
+        <v>0.8579141981907128</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.297965841078067</v>
+        <v>0.4145677554467539</v>
       </c>
       <c r="N12">
-        <v>0.5107642590130155</v>
+        <v>1.231572990528459</v>
       </c>
       <c r="O12">
-        <v>2.057298124040756</v>
+        <v>2.145447582395548</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3870152597561827</v>
+        <v>0.1303836264120406</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06615705458202115</v>
+        <v>0.02756368956521271</v>
       </c>
       <c r="E13">
-        <v>0.4602503030084364</v>
+        <v>0.1892938501540442</v>
       </c>
       <c r="F13">
-        <v>0.7712157858018003</v>
+        <v>0.6632761902924216</v>
       </c>
       <c r="G13">
-        <v>0.0007676156567205937</v>
+        <v>0.002395547561793615</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1445283528941257</v>
+        <v>0.4140748739211837</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.821652022776021</v>
+        <v>0.8534513830235539</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.290622732478553</v>
+        <v>0.4125853716402048</v>
       </c>
       <c r="N13">
-        <v>0.5125479148355723</v>
+        <v>1.232326830394072</v>
       </c>
       <c r="O13">
-        <v>2.048681891562381</v>
+        <v>2.144293896569877</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3802862053570664</v>
+        <v>0.1282911916077438</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0651611066918818</v>
+        <v>0.02723266470553654</v>
       </c>
       <c r="E14">
-        <v>0.4515198469376713</v>
+        <v>0.1873068859144809</v>
       </c>
       <c r="F14">
-        <v>0.7595273806410887</v>
+        <v>0.6612473411250477</v>
       </c>
       <c r="G14">
-        <v>0.0007683689150268503</v>
+        <v>0.002395995606891889</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1461976749634388</v>
+        <v>0.415053699954667</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.772669693901548</v>
+        <v>0.8388937108301207</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.266712636638005</v>
+        <v>0.4061221966938149</v>
       </c>
       <c r="N14">
-        <v>0.5183970681604855</v>
+        <v>1.234797393352228</v>
       </c>
       <c r="O14">
-        <v>2.020728654808181</v>
+        <v>2.140567391212471</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3761654737723745</v>
+        <v>0.1270093986441339</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06455104112954757</v>
+        <v>0.02702973804932185</v>
       </c>
       <c r="E15">
-        <v>0.4461936892030707</v>
+        <v>0.186092257132934</v>
       </c>
       <c r="F15">
-        <v>0.752403482440954</v>
+        <v>0.6600130616285753</v>
       </c>
       <c r="G15">
-        <v>0.000768831474913248</v>
+        <v>0.00239627166503006</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1472308234095863</v>
+        <v>0.4156575339976172</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.742690698079286</v>
+        <v>0.8299740700694258</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.252095164230525</v>
+        <v>0.4021647057300157</v>
       </c>
       <c r="N15">
-        <v>0.522004461522549</v>
+        <v>1.236320002412537</v>
       </c>
       <c r="O15">
-        <v>2.003717331472387</v>
+        <v>2.138312388900374</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3525652642984767</v>
+        <v>0.119662339802332</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06105451194839162</v>
+        <v>0.02586434657698078</v>
       </c>
       <c r="E16">
-        <v>0.4159859088314377</v>
+        <v>0.1791690017002665</v>
       </c>
       <c r="F16">
-        <v>0.7121050657896006</v>
+        <v>0.6530693379585983</v>
       </c>
       <c r="G16">
-        <v>0.0007715005406939413</v>
+        <v>0.002397878481151876</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1533114078185349</v>
+        <v>0.4191833660640221</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.571236536466444</v>
+        <v>0.7788192356463526</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.168736847118538</v>
+        <v>0.3795072284705157</v>
       </c>
       <c r="N16">
-        <v>0.5430472427502337</v>
+        <v>1.245188239508636</v>
       </c>
       <c r="O16">
-        <v>1.907871447929921</v>
+        <v>2.125812436320615</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3380983190513973</v>
+        <v>0.1151538841580759</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05890885257616674</v>
+        <v>0.02514720524398939</v>
       </c>
       <c r="E17">
-        <v>0.3977187924744214</v>
+        <v>0.1749548976586794</v>
       </c>
       <c r="F17">
-        <v>0.6878316097314894</v>
+        <v>0.6489250074590558</v>
       </c>
       <c r="G17">
-        <v>0.0007731547287890179</v>
+        <v>0.002398886422131567</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1571811904792249</v>
+        <v>0.4214047797243001</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.466333945950453</v>
+        <v>0.7474023579158029</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.117939508673857</v>
+        <v>0.3656266027816457</v>
       </c>
       <c r="N17">
-        <v>0.5562792185368579</v>
+        <v>1.250755980377615</v>
       </c>
       <c r="O17">
-        <v>1.850472552893621</v>
+        <v>2.118520821669847</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3297807820135006</v>
+        <v>0.1125603408842295</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05767440383178979</v>
+        <v>0.02473391981494188</v>
       </c>
       <c r="E18">
-        <v>0.3873030265419786</v>
+        <v>0.1725431425999275</v>
       </c>
       <c r="F18">
-        <v>0.6740268874535218</v>
+        <v>0.6465836838482772</v>
       </c>
       <c r="G18">
-        <v>0.0007741125240731142</v>
+        <v>0.002399474344560895</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1594570066053116</v>
+        <v>0.4227039430105233</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.40608875443553</v>
+        <v>0.7293195723568431</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.088837972426241</v>
+        <v>0.3576498147207658</v>
       </c>
       <c r="N18">
-        <v>0.5640056773383009</v>
+        <v>1.254005187936901</v>
       </c>
       <c r="O18">
-        <v>1.817948186619475</v>
+        <v>2.114465174829036</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3269651485597791</v>
+        <v>0.1116821497444676</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05725637774320091</v>
+        <v>0.02459385101970213</v>
       </c>
       <c r="E19">
-        <v>0.3837914895665975</v>
+        <v>0.1717286325686374</v>
       </c>
       <c r="F19">
-        <v>0.6693790231328194</v>
+        <v>0.6457982287904258</v>
       </c>
       <c r="G19">
-        <v>0.0007744379238996858</v>
+        <v>0.002399674811802071</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1602360327124117</v>
+        <v>0.4231475032476766</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.385705601676079</v>
+        <v>0.7231949066449204</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.079003716523061</v>
+        <v>0.3549502100208031</v>
       </c>
       <c r="N19">
-        <v>0.566641340659789</v>
+        <v>1.255113348597344</v>
       </c>
       <c r="O19">
-        <v>1.807017902119185</v>
+        <v>2.113115741920325</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3396379783417984</v>
+        <v>0.1156338597922542</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05913729320452177</v>
+        <v>0.02522362962664459</v>
       </c>
       <c r="E20">
-        <v>0.3996538046980618</v>
+        <v>0.1754022436933482</v>
       </c>
       <c r="F20">
-        <v>0.6903991625061678</v>
+        <v>0.6493617910679603</v>
       </c>
       <c r="G20">
-        <v>0.0007729779843047412</v>
+        <v>0.002398778278821301</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1567640407021269</v>
+        <v>0.4211660847330094</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.477491251800615</v>
+        <v>0.7507480508177764</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.123334787367284</v>
+        <v>0.3671034965448214</v>
       </c>
       <c r="N20">
-        <v>0.5548586056981257</v>
+        <v>1.25015844188642</v>
       </c>
       <c r="O20">
-        <v>1.856531516885241</v>
+        <v>2.119282710120672</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3822624781188182</v>
+        <v>0.1289058150360063</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06545364413608468</v>
+        <v>0.02732992903037257</v>
       </c>
       <c r="E21">
-        <v>0.4540796760125829</v>
+        <v>0.1878899956988889</v>
       </c>
       <c r="F21">
-        <v>0.7629530842278029</v>
+        <v>0.661841502331896</v>
       </c>
       <c r="G21">
-        <v>0.0007681474225535287</v>
+        <v>0.002395863668138682</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1457051297132939</v>
+        <v>0.4147653041059947</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.787051906548641</v>
+        <v>0.843170204889617</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.273729688529883</v>
+        <v>0.4080202980911309</v>
       </c>
       <c r="N21">
-        <v>0.5166738825067512</v>
+        <v>1.234069787186971</v>
       </c>
       <c r="O21">
-        <v>2.028915953279068</v>
+        <v>2.141656205700485</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4101636029099183</v>
+        <v>0.137574788468811</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06958068065790712</v>
+        <v>0.02869918205917799</v>
       </c>
       <c r="E22">
-        <v>0.4905954902474932</v>
+        <v>0.1961606605966892</v>
       </c>
       <c r="F22">
-        <v>0.8119421433586922</v>
+        <v>0.6703757995411621</v>
       </c>
       <c r="G22">
-        <v>0.000765043101470279</v>
+        <v>0.002394031255965409</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.138950298094322</v>
+        <v>0.4107733341792876</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.990417326553711</v>
+        <v>0.9034556602942985</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.373255984858019</v>
+        <v>0.4348240129544507</v>
       </c>
       <c r="N22">
-        <v>0.4928119110319749</v>
+        <v>1.223971925905161</v>
       </c>
       <c r="O22">
-        <v>2.146473639551743</v>
+        <v>2.157513058494885</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.395267623344381</v>
+        <v>0.1329485240627122</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06737800933429128</v>
+        <v>0.02796906534646126</v>
       </c>
       <c r="E23">
-        <v>0.4710129228046966</v>
+        <v>0.1917363834128025</v>
       </c>
       <c r="F23">
-        <v>0.7856431443537701</v>
+        <v>0.6657862586661736</v>
       </c>
       <c r="G23">
-        <v>0.0007666953041228167</v>
+        <v>0.002395002638595927</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1425108413077005</v>
+        <v>0.4128864106147141</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.88176960387915</v>
+        <v>0.8712912106515773</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.320013583833472</v>
+        <v>0.4205126700581019</v>
       </c>
       <c r="N23">
-        <v>0.5054442196394753</v>
+        <v>1.229323171407064</v>
       </c>
       <c r="O23">
-        <v>2.083256086894295</v>
+        <v>2.148936859483172</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3389418994403144</v>
+        <v>0.1154168676881682</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05903401795875851</v>
+        <v>0.02518908124916663</v>
       </c>
       <c r="E24">
-        <v>0.3987787184969207</v>
+        <v>0.1751999643396118</v>
       </c>
       <c r="F24">
-        <v>0.6892379052915629</v>
+        <v>0.6491641925353093</v>
       </c>
       <c r="G24">
-        <v>0.0007730578693215049</v>
+        <v>0.002398827143964706</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1569524754774267</v>
+        <v>0.4212739300779216</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.472446834761655</v>
+        <v>0.7492355278031653</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.120895264703094</v>
+        <v>0.3664357823864179</v>
       </c>
       <c r="N24">
-        <v>0.5555004941016435</v>
+        <v>1.250428438776904</v>
       </c>
       <c r="O24">
-        <v>1.853790785406972</v>
+        <v>2.118937835502436</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2783114666797672</v>
+        <v>0.09649169269610525</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05002043732359596</v>
+        <v>0.02215974317834934</v>
       </c>
       <c r="E25">
-        <v>0.324276160313012</v>
+        <v>0.1578238289863449</v>
       </c>
       <c r="F25">
-        <v>0.5911541820559307</v>
+        <v>0.6328546044304773</v>
       </c>
       <c r="G25">
-        <v>0.0007801656343785943</v>
+        <v>0.002403265536989977</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.174428431448078</v>
+        <v>0.4311417936037838</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.034330382511968</v>
+        <v>0.6170985765418777</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9104399665782594</v>
+        <v>0.3083717285726237</v>
       </c>
       <c r="N25">
-        <v>0.6138891074691237</v>
+        <v>1.274982648397078</v>
       </c>
       <c r="O25">
-        <v>1.624744550296327</v>
+        <v>2.091864418967504</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_248/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_248/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08254928555990659</v>
+        <v>0.2337055029886415</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0199032646041033</v>
+        <v>0.04336216218061395</v>
       </c>
       <c r="E2">
-        <v>0.1454144946159843</v>
+        <v>0.2717013395601384</v>
       </c>
       <c r="F2">
-        <v>0.6222316907933063</v>
+        <v>0.52314947603044</v>
       </c>
       <c r="G2">
-        <v>0.002406805526646769</v>
+        <v>0.0007856291488889923</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4391135274961098</v>
+        <v>0.1887956370534827</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5193990263817057</v>
+        <v>1.713500360366169</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2658377735403263</v>
+        <v>0.7581952995566041</v>
       </c>
       <c r="N2">
-        <v>1.294601807314994</v>
+        <v>0.6603616877058585</v>
       </c>
       <c r="O2">
-        <v>2.076451734950098</v>
+        <v>1.469378335661219</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07309802175362279</v>
+        <v>0.2034653475020889</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01835804970919241</v>
+        <v>0.0388317327278429</v>
       </c>
       <c r="E3">
-        <v>0.1372387361099925</v>
+        <v>0.237201194623438</v>
       </c>
       <c r="F3">
-        <v>0.6158934162451928</v>
+        <v>0.4792984576756254</v>
       </c>
       <c r="G3">
-        <v>0.002409375702234238</v>
+        <v>0.0007894843573382773</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4449566295214264</v>
+        <v>0.1994062305877256</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4529371040189858</v>
+        <v>1.496639519491936</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2371435048373272</v>
+        <v>0.6562586459034563</v>
       </c>
       <c r="N3">
-        <v>1.308859315523067</v>
+        <v>0.6938914739947464</v>
       </c>
       <c r="O3">
-        <v>2.068815343735537</v>
+        <v>1.371189409106364</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06729474701933214</v>
+        <v>0.1848830604073584</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01740150040771482</v>
+        <v>0.03603979233611909</v>
       </c>
       <c r="E4">
-        <v>0.1323325121669185</v>
+        <v>0.2164874400154275</v>
       </c>
       <c r="F4">
-        <v>0.6124254215324356</v>
+        <v>0.4533574393835167</v>
       </c>
       <c r="G4">
-        <v>0.002411038653411015</v>
+        <v>0.000791929466584413</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4487616592074026</v>
+        <v>0.2063328920060412</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4120083196593782</v>
+        <v>1.363610249172297</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2195887546826327</v>
+        <v>0.5941457968798716</v>
       </c>
       <c r="N4">
-        <v>1.318087914377671</v>
+        <v>0.7154403356901682</v>
       </c>
       <c r="O4">
-        <v>2.06550874901157</v>
+        <v>1.314046267735478</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06493002385433044</v>
+        <v>0.1773057175884674</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01700976431160228</v>
+        <v>0.03489931404138957</v>
       </c>
       <c r="E5">
-        <v>0.130361566957184</v>
+        <v>0.2081523337792888</v>
       </c>
       <c r="F5">
-        <v>0.6111186618267581</v>
+        <v>0.4430170353631553</v>
       </c>
       <c r="G5">
-        <v>0.002411737720820428</v>
+        <v>0.0007929458617405382</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4503668850378766</v>
+        <v>0.2092563145972335</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3952997952821988</v>
+        <v>1.309410126940634</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2124510300203468</v>
+        <v>0.5689357000754356</v>
       </c>
       <c r="N5">
-        <v>1.3219679468418</v>
+        <v>0.7244573645369758</v>
       </c>
       <c r="O5">
-        <v>2.064508502053911</v>
+        <v>1.291500946579902</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06453737879508026</v>
+        <v>0.1760471750754675</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01694460064572922</v>
+        <v>0.03470976838644901</v>
       </c>
       <c r="E6">
-        <v>0.1300360008288095</v>
+        <v>0.2067743514840288</v>
       </c>
       <c r="F6">
-        <v>0.6109081041180744</v>
+        <v>0.441313488470584</v>
       </c>
       <c r="G6">
-        <v>0.002411855094963509</v>
+        <v>0.0007931158517425145</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4506367318068865</v>
+        <v>0.2097477527425582</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.392523583271327</v>
+        <v>1.300410280406112</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2112667806331956</v>
+        <v>0.564755187154752</v>
       </c>
       <c r="N6">
-        <v>1.322619429078109</v>
+        <v>0.725968698763678</v>
       </c>
       <c r="O6">
-        <v>2.064363372883406</v>
+        <v>1.287800655812816</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06726285463091131</v>
+        <v>0.184780891140079</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01739622512131689</v>
+        <v>0.03602442275164464</v>
       </c>
       <c r="E7">
-        <v>0.1323058166827664</v>
+        <v>0.2163746165289666</v>
       </c>
       <c r="F7">
-        <v>0.6124073670954644</v>
+        <v>0.4532170719908848</v>
       </c>
       <c r="G7">
-        <v>0.002411047994682105</v>
+        <v>0.0007919430926246378</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4487830865965181</v>
+        <v>0.206371913952248</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4117831020483891</v>
+        <v>1.362879271939761</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2194924281680457</v>
+        <v>0.5938054177893761</v>
       </c>
       <c r="N7">
-        <v>1.318139758791704</v>
+        <v>0.7155609959803861</v>
       </c>
       <c r="O7">
-        <v>2.065493853921595</v>
+        <v>1.31373927756195</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07929063935668523</v>
+        <v>0.2232809897247989</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0193721023189326</v>
+        <v>0.0418020908194805</v>
       </c>
       <c r="E8">
-        <v>0.1425717566875662</v>
+        <v>0.2597007123834914</v>
       </c>
       <c r="F8">
-        <v>0.6199582595897013</v>
+        <v>0.5078152193978127</v>
       </c>
       <c r="G8">
-        <v>0.002407674150678762</v>
+        <v>0.0007869424717680262</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4410831162888957</v>
+        <v>0.1923670146036836</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.496508440066691</v>
+        <v>1.638687970808064</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2559307552359655</v>
+        <v>0.7229371253245134</v>
       </c>
       <c r="N8">
-        <v>1.299419331246153</v>
+        <v>0.6717194730449485</v>
       </c>
       <c r="O8">
-        <v>2.073531620193478</v>
+        <v>1.434839095506106</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1028682196504462</v>
+        <v>0.2987247505719637</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02318424736155578</v>
+        <v>0.05305938927387643</v>
       </c>
       <c r="E9">
-        <v>0.1636164817211991</v>
+        <v>0.3489767701953639</v>
       </c>
       <c r="F9">
-        <v>0.6381327759145634</v>
+        <v>0.623484248430735</v>
       </c>
       <c r="G9">
-        <v>0.002401728387462603</v>
+        <v>0.0007777368831625367</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4277081263449283</v>
+        <v>0.1683000991294961</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.661672947783245</v>
+        <v>2.181564127614479</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3278961086860051</v>
+        <v>0.9808471036472071</v>
       </c>
       <c r="N9">
-        <v>1.266472399051413</v>
+        <v>0.5936609174022855</v>
       </c>
       <c r="O9">
-        <v>2.100280233298975</v>
+        <v>1.699670717052271</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1201767269206471</v>
+        <v>0.354216554943477</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02594606777574171</v>
+        <v>0.06129930886040569</v>
       </c>
       <c r="E10">
-        <v>0.1796515033590111</v>
+        <v>0.4180830843893801</v>
       </c>
       <c r="F10">
-        <v>0.6535479805105524</v>
+        <v>0.714896647598664</v>
       </c>
       <c r="G10">
-        <v>0.002397764575459562</v>
+        <v>0.0007713126342313283</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4189327964422596</v>
+        <v>0.1528767069773451</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7824023906995308</v>
+        <v>2.58321987080123</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3810920505553526</v>
+        <v>1.174549526291777</v>
       </c>
       <c r="N10">
-        <v>1.244559262900559</v>
+        <v>0.5415532775249545</v>
       </c>
       <c r="O10">
-        <v>2.126663210091237</v>
+        <v>1.914489193373896</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1280460803206722</v>
+        <v>0.3794981367236261</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02719386865184958</v>
+        <v>0.06504444476466631</v>
       </c>
       <c r="E11">
-        <v>0.1870744668818318</v>
+        <v>0.4505000602530842</v>
       </c>
       <c r="F11">
-        <v>0.6610108080093937</v>
+        <v>0.7581629790186639</v>
       </c>
       <c r="G11">
-        <v>0.002396048301764848</v>
+        <v>0.0007684573010404799</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4151689179646247</v>
+        <v>0.1463946160134206</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8371881589744419</v>
+        <v>2.76693538503676</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4053653208289916</v>
+        <v>1.263915678109058</v>
       </c>
       <c r="N11">
-        <v>1.235088010160357</v>
+        <v>0.5190854579351729</v>
       </c>
       <c r="O11">
-        <v>2.140134529557571</v>
+        <v>2.017469045038126</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1310251900639656</v>
+        <v>0.3890790328177047</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02766512725912662</v>
+        <v>0.06646244056576478</v>
       </c>
       <c r="E12">
-        <v>0.1899040978761732</v>
+        <v>0.4629360871637331</v>
       </c>
       <c r="F12">
-        <v>0.6639016766469581</v>
+        <v>0.7748142431737648</v>
       </c>
       <c r="G12">
-        <v>0.002395410821181873</v>
+        <v>0.0007673851438038595</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4137764386456642</v>
+        <v>0.1440207581731165</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8579141981907128</v>
+        <v>2.836681540195372</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4145677554467539</v>
+        <v>1.297965841078081</v>
       </c>
       <c r="N12">
-        <v>1.231572990528459</v>
+        <v>0.5107642590130119</v>
       </c>
       <c r="O12">
-        <v>2.145447582395548</v>
+        <v>2.057298124040756</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1303836264120406</v>
+        <v>0.3870152597563106</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02756368956521271</v>
+        <v>0.06615705458213483</v>
       </c>
       <c r="E13">
-        <v>0.1892938501540442</v>
+        <v>0.4602503030084435</v>
       </c>
       <c r="F13">
-        <v>0.6632761902924216</v>
+        <v>0.7712157858018003</v>
       </c>
       <c r="G13">
-        <v>0.002395547561793615</v>
+        <v>0.0007676156567488707</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4140748739211837</v>
+        <v>0.1445283528941257</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8534513830235539</v>
+        <v>2.821652022776021</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4125853716402048</v>
+        <v>1.290622732478553</v>
       </c>
       <c r="N13">
-        <v>1.232326830394072</v>
+        <v>0.5125479148355723</v>
       </c>
       <c r="O13">
-        <v>2.144293896569877</v>
+        <v>2.048681891562381</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1282911916077438</v>
+        <v>0.3802862053570664</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02723266470553654</v>
+        <v>0.06516110669193864</v>
       </c>
       <c r="E14">
-        <v>0.1873068859144809</v>
+        <v>0.4515198469376855</v>
       </c>
       <c r="F14">
-        <v>0.6612473411250477</v>
+        <v>0.7595273806410887</v>
       </c>
       <c r="G14">
-        <v>0.002395995606891889</v>
+        <v>0.0007683689150277008</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.415053699954667</v>
+        <v>0.1461976749634353</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8388937108301207</v>
+        <v>2.772669693901605</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4061221966938149</v>
+        <v>1.266712636638019</v>
       </c>
       <c r="N14">
-        <v>1.234797393352228</v>
+        <v>0.5183970681605281</v>
       </c>
       <c r="O14">
-        <v>2.140567391212471</v>
+        <v>2.02072865480821</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1270093986441339</v>
+        <v>0.3761654737724882</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02702973804932185</v>
+        <v>0.06455104112938415</v>
       </c>
       <c r="E15">
-        <v>0.186092257132934</v>
+        <v>0.4461936892030778</v>
       </c>
       <c r="F15">
-        <v>0.6600130616285753</v>
+        <v>0.752403482440954</v>
       </c>
       <c r="G15">
-        <v>0.00239627166503006</v>
+        <v>0.0007688314749427232</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4156575339976172</v>
+        <v>0.1472308234095845</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8299740700694258</v>
+        <v>2.74269069807923</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4021647057300157</v>
+        <v>1.252095164230525</v>
       </c>
       <c r="N15">
-        <v>1.236320002412537</v>
+        <v>0.5220044615225454</v>
       </c>
       <c r="O15">
-        <v>2.138312388900374</v>
+        <v>2.003717331472302</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.119662339802332</v>
+        <v>0.352565264298363</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02586434657698078</v>
+        <v>0.06105451194839873</v>
       </c>
       <c r="E16">
-        <v>0.1791690017002665</v>
+        <v>0.4159859088314093</v>
       </c>
       <c r="F16">
-        <v>0.6530693379585983</v>
+        <v>0.7121050657896149</v>
       </c>
       <c r="G16">
-        <v>0.002397878481151876</v>
+        <v>0.0007715005406944333</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4191833660640221</v>
+        <v>0.1533114078185349</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7788192356463526</v>
+        <v>2.571236536466444</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3795072284705157</v>
+        <v>1.168736847118538</v>
       </c>
       <c r="N16">
-        <v>1.245188239508636</v>
+        <v>0.5430472427502373</v>
       </c>
       <c r="O16">
-        <v>2.125812436320615</v>
+        <v>1.907871447929921</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1151538841580759</v>
+        <v>0.3380983190514968</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02514720524398939</v>
+        <v>0.05890885257604594</v>
       </c>
       <c r="E17">
-        <v>0.1749548976586794</v>
+        <v>0.3977187924744001</v>
       </c>
       <c r="F17">
-        <v>0.6489250074590558</v>
+        <v>0.6878316097315036</v>
       </c>
       <c r="G17">
-        <v>0.002398886422131567</v>
+        <v>0.000773154728762826</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4214047797243001</v>
+        <v>0.1571811904792373</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7474023579158029</v>
+        <v>2.466333945950453</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3656266027816457</v>
+        <v>1.11793950867385</v>
       </c>
       <c r="N17">
-        <v>1.250755980377615</v>
+        <v>0.556279218536794</v>
       </c>
       <c r="O17">
-        <v>2.118520821669847</v>
+        <v>1.850472552893621</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1125603408842295</v>
+        <v>0.3297807820136001</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02473391981494188</v>
+        <v>0.05767440383191058</v>
       </c>
       <c r="E18">
-        <v>0.1725431425999275</v>
+        <v>0.3873030265419999</v>
       </c>
       <c r="F18">
-        <v>0.6465836838482772</v>
+        <v>0.6740268874534934</v>
       </c>
       <c r="G18">
-        <v>0.002399474344560895</v>
+        <v>0.0007741125240473965</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4227039430105233</v>
+        <v>0.1594570066053098</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7293195723568431</v>
+        <v>2.406088754435586</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3576498147207658</v>
+        <v>1.088837972426241</v>
       </c>
       <c r="N18">
-        <v>1.254005187936901</v>
+        <v>0.5640056773382973</v>
       </c>
       <c r="O18">
-        <v>2.114465174829036</v>
+        <v>1.817948186619503</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1116821497444676</v>
+        <v>0.3269651485597791</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02459385101970213</v>
+        <v>0.05725637774320802</v>
       </c>
       <c r="E19">
-        <v>0.1717286325686374</v>
+        <v>0.3837914895666046</v>
       </c>
       <c r="F19">
-        <v>0.6457982287904258</v>
+        <v>0.6693790231328052</v>
       </c>
       <c r="G19">
-        <v>0.002399674811802071</v>
+        <v>0.0007744379239289108</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4231475032476766</v>
+        <v>0.1602360327124099</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7231949066449204</v>
+        <v>2.38570560167625</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3549502100208031</v>
+        <v>1.079003716523076</v>
       </c>
       <c r="N19">
-        <v>1.255113348597344</v>
+        <v>0.5666413406598387</v>
       </c>
       <c r="O19">
-        <v>2.113115741920325</v>
+        <v>1.807017902119156</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1156338597922542</v>
+        <v>0.3396379783418126</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02522362962664459</v>
+        <v>0.05913729320457151</v>
       </c>
       <c r="E20">
-        <v>0.1754022436933482</v>
+        <v>0.3996538046980618</v>
       </c>
       <c r="F20">
-        <v>0.6493617910679603</v>
+        <v>0.6903991625061678</v>
       </c>
       <c r="G20">
-        <v>0.002398778278821301</v>
+        <v>0.0007729779843045192</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4211660847330094</v>
+        <v>0.1567640407021393</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7507480508177764</v>
+        <v>2.477491251800473</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3671034965448214</v>
+        <v>1.123334787367284</v>
       </c>
       <c r="N20">
-        <v>1.25015844188642</v>
+        <v>0.5548586056981186</v>
       </c>
       <c r="O20">
-        <v>2.119282710120672</v>
+        <v>1.856531516885155</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1289058150360063</v>
+        <v>0.3822624781185766</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02732992903037257</v>
+        <v>0.06545364413631916</v>
       </c>
       <c r="E21">
-        <v>0.1878899956988889</v>
+        <v>0.4540796760126042</v>
       </c>
       <c r="F21">
-        <v>0.661841502331896</v>
+        <v>0.7629530842277887</v>
       </c>
       <c r="G21">
-        <v>0.002395863668138682</v>
+        <v>0.0007681474225262727</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4147653041059947</v>
+        <v>0.1457051297132779</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.843170204889617</v>
+        <v>2.787051906548612</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4080202980911309</v>
+        <v>1.273729688529869</v>
       </c>
       <c r="N21">
-        <v>1.234069787186971</v>
+        <v>0.5166738825066943</v>
       </c>
       <c r="O21">
-        <v>2.141656205700485</v>
+        <v>2.028915953279011</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.137574788468811</v>
+        <v>0.4101636029099041</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02869918205917799</v>
+        <v>0.06958068065802792</v>
       </c>
       <c r="E22">
-        <v>0.1961606605966892</v>
+        <v>0.4905954902474932</v>
       </c>
       <c r="F22">
-        <v>0.6703757995411621</v>
+        <v>0.8119421433586922</v>
       </c>
       <c r="G22">
-        <v>0.002394031255965409</v>
+        <v>0.0007650431014999198</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4107733341792876</v>
+        <v>0.138950298094306</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9034556602942985</v>
+        <v>2.990417326553654</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4348240129544507</v>
+        <v>1.373255984857991</v>
       </c>
       <c r="N22">
-        <v>1.223971925905161</v>
+        <v>0.4928119110319678</v>
       </c>
       <c r="O22">
-        <v>2.157513058494885</v>
+        <v>2.146473639551715</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1329485240627122</v>
+        <v>0.3952676233443668</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02796906534646126</v>
+        <v>0.06737800933429128</v>
       </c>
       <c r="E23">
-        <v>0.1917363834128025</v>
+        <v>0.471012922804718</v>
       </c>
       <c r="F23">
-        <v>0.6657862586661736</v>
+        <v>0.7856431443537559</v>
       </c>
       <c r="G23">
-        <v>0.002395002638595927</v>
+        <v>0.0007666953041231027</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4128864106147141</v>
+        <v>0.1425108413077023</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8712912106515773</v>
+        <v>2.881769603879121</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4205126700581019</v>
+        <v>1.320013583833472</v>
       </c>
       <c r="N23">
-        <v>1.229323171407064</v>
+        <v>0.5054442196395357</v>
       </c>
       <c r="O23">
-        <v>2.148936859483172</v>
+        <v>2.083256086894295</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1154168676881682</v>
+        <v>0.3389418994403144</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02518908124916663</v>
+        <v>0.05903401795875851</v>
       </c>
       <c r="E24">
-        <v>0.1751999643396118</v>
+        <v>0.3987787184969136</v>
       </c>
       <c r="F24">
-        <v>0.6491641925353093</v>
+        <v>0.6892379052915629</v>
       </c>
       <c r="G24">
-        <v>0.002398827143964706</v>
+        <v>0.000773057869292508</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4212739300779216</v>
+        <v>0.1569524754774267</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7492355278031653</v>
+        <v>2.472446834761797</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3664357823864179</v>
+        <v>1.120895264703073</v>
       </c>
       <c r="N24">
-        <v>1.250428438776904</v>
+        <v>0.5555004941016399</v>
       </c>
       <c r="O24">
-        <v>2.118937835502436</v>
+        <v>1.853790785407028</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.09649169269610525</v>
+        <v>0.2783114666797672</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02215974317834934</v>
+        <v>0.05002043732359596</v>
       </c>
       <c r="E25">
-        <v>0.1578238289863449</v>
+        <v>0.3242761603129978</v>
       </c>
       <c r="F25">
-        <v>0.6328546044304773</v>
+        <v>0.5911541820559378</v>
       </c>
       <c r="G25">
-        <v>0.002403265536989977</v>
+        <v>0.0007801656343502399</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4311417936037838</v>
+        <v>0.1744284314480904</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6170985765418777</v>
+        <v>2.034330382511939</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3083717285726237</v>
+        <v>0.9104399665782665</v>
       </c>
       <c r="N25">
-        <v>1.274982648397078</v>
+        <v>0.6138891074691273</v>
       </c>
       <c r="O25">
-        <v>2.091864418967504</v>
+        <v>1.624744550296413</v>
       </c>
     </row>
   </sheetData>
